--- a/docs/dev/AthenaLinkages.xlsx
+++ b/docs/dev/AthenaLinkages.xlsx
@@ -1,15 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="27320" windowHeight="16200" tabRatio="227"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="27315" windowHeight="16200" tabRatio="227"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
   <si>
     <t>Ground</t>
   </si>
@@ -56,21 +54,9 @@
     <t>ENI Services</t>
   </si>
   <si>
-    <t>Unemployment Statistics</t>
-  </si>
-  <si>
     <t>Affinities</t>
   </si>
   <si>
-    <t>Horizontal Relationships</t>
-  </si>
-  <si>
-    <t>Vertical Relationships</t>
-  </si>
-  <si>
-    <t>GRAM</t>
-  </si>
-  <si>
     <t>Driver Assessment Model</t>
   </si>
   <si>
@@ -89,9 +75,6 @@
     <t>Linkages: What data does each column provide to each row?</t>
   </si>
   <si>
-    <t>Status quo deployments</t>
-  </si>
-  <si>
     <t>Attrition to deployed personnel.</t>
   </si>
   <si>
@@ -137,54 +120,27 @@
     <t>Rules of Engagement</t>
   </si>
   <si>
-    <t>Status quo ENI funding</t>
-  </si>
-  <si>
     <t>Current ENI Funding</t>
   </si>
   <si>
     <t>Actors in control of neighborhoods</t>
   </si>
   <si>
-    <t>Base populations, subsistence agriculture percentages</t>
-  </si>
-  <si>
     <t>Attrition to civilians</t>
   </si>
   <si>
-    <t>Displaced Civilians</t>
-  </si>
-  <si>
-    <t>Unemployment Rate</t>
-  </si>
-  <si>
     <t>Beliefs, playbox commonality, entity commonality</t>
   </si>
   <si>
-    <t>Credit/blame for providing ENI services</t>
-  </si>
-  <si>
     <t>Group Security</t>
   </si>
   <si>
-    <t>Civilian moods</t>
-  </si>
-  <si>
     <t>Changes in control</t>
   </si>
   <si>
-    <t>Groups, initial satisfaction levels, initial cooperation levels</t>
-  </si>
-  <si>
     <t>Civilian populations</t>
   </si>
   <si>
-    <t>Group relationships</t>
-  </si>
-  <si>
-    <t>Satisfaction &amp; Cooperation Inputs</t>
-  </si>
-  <si>
     <t>Magic Drivers</t>
   </si>
   <si>
@@ -194,21 +150,12 @@
     <t>Civilian Casualties</t>
   </si>
   <si>
-    <t>Expectations factor, Needs factor</t>
-  </si>
-  <si>
-    <t>Unemployment factors</t>
-  </si>
-  <si>
     <t>Condition data</t>
   </si>
   <si>
     <t>Actor initially in control of each neighborhood</t>
   </si>
   <si>
-    <t>Actor support for other actors</t>
-  </si>
-  <si>
     <t>Goals, tactics, conditions, actor incomes</t>
   </si>
   <si>
@@ -227,7 +174,97 @@
     <t>Changes to neighborhood production</t>
   </si>
   <si>
-    <t>Group Mood</t>
+    <t>IOMs</t>
+  </si>
+  <si>
+    <t>CAPs, Semantic Hooks, IOMs</t>
+  </si>
+  <si>
+    <t>CGE</t>
+  </si>
+  <si>
+    <t>Actor Finances</t>
+  </si>
+  <si>
+    <t>URAM</t>
+  </si>
+  <si>
+    <t>Economic Stats</t>
+  </si>
+  <si>
+    <t>Cash to pay for deployments</t>
+  </si>
+  <si>
+    <t>Law enforcement</t>
+  </si>
+  <si>
+    <t>Group Mood, Horizontal Relationships</t>
+  </si>
+  <si>
+    <t>Stance of force groups towards other groups</t>
+  </si>
+  <si>
+    <t>Belief Systems</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Cash to pay for ENI</t>
+  </si>
+  <si>
+    <t>Cash to pay for assignments</t>
+  </si>
+  <si>
+    <t>Base populations, subsistence agriculture flag, labor force fractions</t>
+  </si>
+  <si>
+    <t>Migration of civilians</t>
+  </si>
+  <si>
+    <t>Unemployment Rate, Income, Consumption of Goods</t>
+  </si>
+  <si>
+    <t>Groups, Actors, initial attitude levels</t>
+  </si>
+  <si>
+    <t>Attitude Inputs</t>
+  </si>
+  <si>
+    <t>Deployments</t>
+  </si>
+  <si>
+    <t>Levels of Service</t>
+  </si>
+  <si>
+    <t>Demographic Situations (Unemployment, Consumption)</t>
+  </si>
+  <si>
+    <t>IOM-driven attitude change</t>
+  </si>
+  <si>
+    <t>Condition Data</t>
+  </si>
+  <si>
+    <t>Vertical and horizontal relationships</t>
+  </si>
+  <si>
+    <t>Relationships, Group Mood</t>
+  </si>
+  <si>
+    <t>Actor support for other actors; Force group stance toward other groups</t>
+  </si>
+  <si>
+    <t>Actor expenditures</t>
+  </si>
+  <si>
+    <t>Actor income</t>
+  </si>
+  <si>
+    <t>Broadcast of IOMs, Control of CAPs</t>
+  </si>
+  <si>
+    <t>Cash to pay for IOM broadcasts</t>
   </si>
 </sst>
 </file>
@@ -412,7 +449,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -435,6 +472,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -460,6 +503,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -765,70 +820,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
     <col min="4" max="10" width="14" style="1"/>
-    <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
-    <col min="12" max="17" width="14" style="1"/>
-    <col min="18" max="18" width="17.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="14" style="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" customWidth="1"/>
+    <col min="12" max="15" width="14" style="1"/>
+    <col min="16" max="16" width="17.140625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="15.28515625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1">
-      <c r="A1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="8" t="s">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="8" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="8" t="s">
+      <c r="M1" s="12"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="9"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="22"/>
       <c r="S1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="42">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="12"/>
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
@@ -836,7 +890,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>8</v>
@@ -851,371 +905,405 @@
         <v>1</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" ht="42">
-      <c r="A3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" ht="42">
-      <c r="A4" s="6"/>
+      <c r="O3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" ht="28">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="2" customFormat="1" ht="28">
-      <c r="A6" s="6"/>
+      <c r="R5" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="56">
-      <c r="A7" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="28">
-      <c r="A8" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" ht="56">
-      <c r="A9" s="7" t="s">
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="10" spans="1:19" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" ht="28">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S10" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="56">
-      <c r="A11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="28">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="2" customFormat="1" ht="42">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R13" s="2" t="s">
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" s="2" customFormat="1" ht="56">
-      <c r="A14" s="6"/>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="O16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="R16" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="C18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="2" customFormat="1" ht="42">
-      <c r="A15" s="6"/>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="3" customFormat="1" ht="42">
-      <c r="A16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="3" customFormat="1" ht="42">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="5" t="s">
+      <c r="J18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" ht="56">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="3" customFormat="1">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>5</v>
+      <c r="M18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="C1:C2"/>
@@ -1229,38 +1317,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>